--- a/media/reports/izolasyon_MonoFazSont.xlsx
+++ b/media/reports/izolasyon_MonoFazSont.xlsx
@@ -556,7 +556,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -746,6 +746,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -1222,7 +1225,7 @@
       </c>
       <c r="B1" s="55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Şönt Mono Faz Trafosu  Hesap Ozeti</t>
+          <t xml:space="preserve"> Şönt Trifaz Trafosu  Hesap Ozeti</t>
         </is>
       </c>
       <c r="C1" s="49" t="n"/>
@@ -1241,7 +1244,7 @@
       <c r="L1" s="27" t="n"/>
       <c r="M1" s="27" t="n"/>
       <c r="N1" s="57" t="n">
-        <v>44325.80414272739</v>
+        <v>44328.37835536929</v>
       </c>
       <c r="O1" s="50" t="n"/>
     </row>
@@ -1274,7 +1277,7 @@
       </c>
       <c r="B3" s="52" t="inlineStr">
         <is>
-          <t>5000.0 VA</t>
+          <t>25000.0 VA</t>
         </is>
       </c>
       <c r="C3" s="72" t="n"/>
@@ -1288,7 +1291,7 @@
       </c>
       <c r="H3" s="53" t="inlineStr">
         <is>
-          <t>1.784 kg</t>
+          <t>9.237 kg</t>
         </is>
       </c>
       <c r="I3" s="54" t="n"/>
@@ -1300,7 +1303,7 @@
       <c r="K3" s="60" t="n"/>
       <c r="L3" s="74" t="inlineStr">
         <is>
-          <t>64.0 x 100.0 x 68.0</t>
+          <t>60.0 x 110.0 x 171.0</t>
         </is>
       </c>
       <c r="M3" s="59" t="n"/>
@@ -1315,7 +1318,7 @@
       </c>
       <c r="B4" s="52" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="C4" s="72" t="n"/>
@@ -1337,7 +1340,7 @@
       <c r="K4" s="76" t="n"/>
       <c r="L4" s="77" t="inlineStr">
         <is>
-          <t>0.0 x 0.0 x 0.0</t>
+          <t>360.0 x 230.0 x 300.0 x 300.0 x 175.0</t>
         </is>
       </c>
       <c r="O4" s="76" t="n"/>
@@ -1389,7 +1392,7 @@
       </c>
       <c r="B6" s="52" t="inlineStr">
         <is>
-          <t>10500.0</t>
+          <t>11500.0</t>
         </is>
       </c>
       <c r="C6" s="72" t="n"/>
@@ -1411,7 +1414,7 @@
       <c r="K6" s="76" t="n"/>
       <c r="L6" s="77" t="inlineStr">
         <is>
-          <t>18.857 kg(EI Sac)</t>
+          <t>57.992 kg(EI Sac)</t>
         </is>
       </c>
       <c r="O6" s="76" t="n"/>
@@ -1438,7 +1441,7 @@
       </c>
       <c r="H7" s="53" t="inlineStr">
         <is>
-          <t>Al:1.784 //  Cu:0.0kg</t>
+          <t>Al:9.237 //  Cu:0.0kg</t>
         </is>
       </c>
       <c r="I7" s="54" t="n"/>
@@ -1480,10 +1483,13 @@
       <c r="A10" s="1" t="n"/>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>230.0 V ( 230.0V )</t>
+          <t>400.0 V ( 400.0V )</t>
         </is>
       </c>
       <c r="I10" s="1" t="n"/>
+      <c r="L10" t="n">
+        <v>5.75</v>
+      </c>
       <c r="O10" s="2" t="n"/>
     </row>
     <row r="11">
@@ -1494,11 +1500,13 @@
       </c>
       <c r="J11" s="1" t="n"/>
       <c r="K11" s="1" t="n"/>
-      <c r="L11" s="1" t="n"/>
+      <c r="L11" s="81" t="n">
+        <v>20.372</v>
+      </c>
       <c r="M11" s="1" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="81" t="inlineStr">
+      <c r="A12" s="82" t="inlineStr">
         <is>
           <t>Tel :</t>
         </is>
@@ -1514,11 +1522,13 @@
       <c r="I12" s="23" t="n"/>
       <c r="J12" s="22" t="n"/>
       <c r="K12" s="22" t="n"/>
-      <c r="L12" s="22" t="n"/>
+      <c r="L12" s="22" t="n">
+        <v>36.084</v>
+      </c>
       <c r="M12" s="22" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="81" t="inlineStr">
+      <c r="A13" s="82" t="inlineStr">
         <is>
           <t>Cap :</t>
         </is>
@@ -1532,17 +1542,19 @@
       <c r="I13" s="23" t="n"/>
       <c r="J13" s="21" t="n"/>
       <c r="K13" s="21" t="n"/>
-      <c r="L13" s="21" t="n"/>
+      <c r="L13" s="21" t="n">
+        <v>10692</v>
+      </c>
       <c r="M13" s="21" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="81" t="inlineStr">
+      <c r="A14" s="82" t="inlineStr">
         <is>
           <t>Kesit :</t>
         </is>
       </c>
       <c r="B14" s="26" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C14" s="21" t="n"/>
       <c r="D14" s="21" t="n"/>
@@ -1551,18 +1563,20 @@
       <c r="I14" s="23" t="n"/>
       <c r="J14" s="21" t="n"/>
       <c r="K14" s="21" t="n"/>
-      <c r="L14" s="21" t="n"/>
+      <c r="L14" s="21" t="n">
+        <v>9326.096</v>
+      </c>
       <c r="M14" s="21" t="n"/>
       <c r="O14" s="1" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="81" t="inlineStr">
+      <c r="A15" s="82" t="inlineStr">
         <is>
           <t>Akim :</t>
         </is>
       </c>
       <c r="B15" s="26" t="n">
-        <v>21.6</v>
+        <v>36</v>
       </c>
       <c r="C15" s="21" t="n"/>
       <c r="D15" s="21" t="n"/>
@@ -1571,18 +1585,20 @@
       <c r="I15" s="23" t="n"/>
       <c r="J15" s="21" t="n"/>
       <c r="K15" s="21" t="n"/>
-      <c r="L15" s="21" t="n"/>
+      <c r="L15" s="21" t="n">
+        <v>63</v>
+      </c>
       <c r="M15" s="21" t="n"/>
       <c r="O15" s="2" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="81" t="inlineStr">
+      <c r="A16" s="82" t="inlineStr">
         <is>
           <t>Kat :</t>
         </is>
       </c>
       <c r="B16" s="26" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C16" s="21" t="n"/>
       <c r="D16" s="21" t="n"/>
@@ -1590,17 +1606,19 @@
       <c r="I16" s="23" t="n"/>
       <c r="J16" s="21" t="n"/>
       <c r="K16" s="21" t="n"/>
-      <c r="L16" s="21" t="n"/>
+      <c r="L16" s="21" t="n">
+        <v>52.93</v>
+      </c>
       <c r="M16" s="21" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="81" t="inlineStr">
+      <c r="A17" s="82" t="inlineStr">
         <is>
           <t>Uzunluk :</t>
         </is>
       </c>
       <c r="B17" s="26" t="n">
-        <v>55.04770000000001</v>
+        <v>47.513</v>
       </c>
       <c r="C17" s="21" t="n"/>
       <c r="D17" s="21" t="n"/>
@@ -1608,12 +1626,14 @@
       <c r="I17" s="23" t="n"/>
       <c r="J17" s="21" t="n"/>
       <c r="K17" s="21" t="n"/>
-      <c r="L17" s="21" t="n"/>
+      <c r="L17" s="21" t="n">
+        <v>66</v>
+      </c>
       <c r="M17" s="21" t="n"/>
     </row>
     <row r="18">
-      <c r="B18" s="82" t="inlineStr"/>
-      <c r="C18" s="81" t="inlineStr">
+      <c r="B18" s="83" t="inlineStr"/>
+      <c r="C18" s="82" t="inlineStr">
         <is>
           <t>-- Teller --</t>
         </is>
@@ -1623,12 +1643,14 @@
       <c r="G18" s="2" t="n"/>
       <c r="J18" s="25" t="n"/>
       <c r="K18" s="25" t="n"/>
-      <c r="L18" s="25" t="n"/>
+      <c r="L18" s="25" t="n">
+        <v>137.058</v>
+      </c>
       <c r="M18" s="25" t="n"/>
       <c r="O18" s="2" t="n"/>
     </row>
     <row r="19" ht="15" customHeight="1">
-      <c r="A19" s="81" t="inlineStr">
+      <c r="A19" s="82" t="inlineStr">
         <is>
           <t>Yuv. Tel :</t>
         </is>
@@ -1639,18 +1661,20 @@
       <c r="E19" s="24" t="n"/>
       <c r="G19" s="17" t="inlineStr">
         <is>
-          <t>122 sp</t>
+          <t>109 sp</t>
         </is>
       </c>
       <c r="I19" s="23" t="n"/>
       <c r="J19" s="24" t="n"/>
       <c r="K19" s="24" t="n"/>
-      <c r="L19" s="24" t="n"/>
+      <c r="L19" s="24" t="n">
+        <v>0.765</v>
+      </c>
       <c r="M19" s="24" t="n"/>
       <c r="O19" s="17" t="n"/>
     </row>
     <row r="20" ht="15" customHeight="1">
-      <c r="A20" s="81" t="inlineStr">
+      <c r="A20" s="82" t="inlineStr">
         <is>
           <t>Ytel Agr :</t>
         </is>
@@ -1662,18 +1686,20 @@
       <c r="I20" s="23" t="n"/>
       <c r="J20" s="26" t="n"/>
       <c r="K20" s="26" t="n"/>
-      <c r="L20" s="26" t="n"/>
+      <c r="L20" s="26" t="n">
+        <v>1.575</v>
+      </c>
       <c r="M20" s="26" t="n"/>
     </row>
     <row r="21" ht="15" customHeight="1">
-      <c r="A21" s="81" t="inlineStr">
+      <c r="A21" s="82" t="inlineStr">
         <is>
           <t>Kare Tel :</t>
         </is>
       </c>
-      <c r="B21" s="83" t="inlineStr">
-        <is>
-          <t>4.0x3.0</t>
+      <c r="B21" s="84" t="inlineStr">
+        <is>
+          <t>6.0x4.0</t>
         </is>
       </c>
       <c r="C21" s="24" t="n"/>
@@ -1682,17 +1708,19 @@
       <c r="I21" s="23" t="n"/>
       <c r="J21" s="24" t="n"/>
       <c r="K21" s="24" t="n"/>
-      <c r="L21" s="24" t="n"/>
+      <c r="L21" s="24" t="n">
+        <v>109.227</v>
+      </c>
       <c r="M21" s="24" t="n"/>
     </row>
     <row r="22" ht="15" customHeight="1">
-      <c r="A22" s="81" t="inlineStr">
+      <c r="A22" s="82" t="inlineStr">
         <is>
           <t>Ktel Agr :</t>
         </is>
       </c>
-      <c r="B22" s="83" t="n">
-        <v>1.78354548</v>
+      <c r="B22" s="84" t="n">
+        <v>3.0788424</v>
       </c>
       <c r="C22" s="26" t="n"/>
       <c r="D22" s="26" t="n"/>
@@ -1700,11 +1728,13 @@
       <c r="I22" s="23" t="n"/>
       <c r="J22" s="26" t="n"/>
       <c r="K22" s="26" t="n"/>
-      <c r="L22" s="26" t="n"/>
+      <c r="L22" s="26" t="n">
+        <v>0.61</v>
+      </c>
       <c r="M22" s="26" t="n"/>
     </row>
     <row r="23" ht="15" customHeight="1">
-      <c r="A23" s="81" t="inlineStr">
+      <c r="A23" s="82" t="inlineStr">
         <is>
           <t>Folyo :</t>
         </is>
@@ -1716,11 +1746,13 @@
       <c r="I23" s="23" t="n"/>
       <c r="J23" s="24" t="n"/>
       <c r="K23" s="24" t="n"/>
-      <c r="L23" s="24" t="n"/>
+      <c r="L23" s="24" t="n">
+        <v>1.473</v>
+      </c>
       <c r="M23" s="24" t="n"/>
     </row>
     <row r="24" ht="15" customHeight="1">
-      <c r="A24" s="81" t="inlineStr">
+      <c r="A24" s="82" t="inlineStr">
         <is>
           <t>Folyo Agr :</t>
         </is>
@@ -1732,11 +1764,13 @@
       <c r="I24" s="23" t="n"/>
       <c r="J24" s="26" t="n"/>
       <c r="K24" s="26" t="n"/>
-      <c r="L24" s="26" t="n"/>
+      <c r="L24" s="26" t="n">
+        <v>100.615</v>
+      </c>
       <c r="M24" s="26" t="n"/>
     </row>
     <row r="25" ht="15" customHeight="1">
-      <c r="A25" s="81" t="inlineStr">
+      <c r="A25" s="82" t="inlineStr">
         <is>
           <t>Kapton :</t>
         </is>
@@ -1749,12 +1783,22 @@
       <c r="I25" s="23" t="n"/>
       <c r="J25" s="24" t="n"/>
       <c r="K25" s="24" t="n"/>
-      <c r="L25" s="24" t="n"/>
+      <c r="L25" s="24" t="n">
+        <v>0.76</v>
+      </c>
       <c r="M25" s="24" t="n"/>
       <c r="O25" s="2" t="n"/>
     </row>
-    <row r="26" ht="15" customHeight="1"/>
-    <row r="27" ht="15" customHeight="1"/>
+    <row r="26" ht="15" customHeight="1">
+      <c r="L26" t="n">
+        <v>1.572</v>
+      </c>
+    </row>
+    <row r="27" ht="15" customHeight="1">
+      <c r="L27" t="n">
+        <v>108.99</v>
+      </c>
+    </row>
     <row r="28" ht="15" customHeight="1"/>
     <row r="29" ht="15" customHeight="1" thickBot="1"/>
     <row r="30" ht="15" customHeight="1" thickBot="1"/>
@@ -1774,7 +1818,7 @@
       <c r="G34" s="15" t="n"/>
     </row>
     <row r="35" ht="15" customHeight="1" thickBot="1">
-      <c r="B35" s="84" t="inlineStr">
+      <c r="B35" s="85" t="inlineStr">
         <is>
           <t>Primer Kademe</t>
         </is>
@@ -1794,14 +1838,14 @@
       </c>
     </row>
     <row r="36" ht="15" customHeight="1" thickBot="1">
-      <c r="B36" s="85" t="inlineStr">
+      <c r="B36" s="86" t="inlineStr">
         <is>
           <t>Yok</t>
         </is>
       </c>
       <c r="C36" s="49" t="n"/>
       <c r="D36" s="49" t="n"/>
-      <c r="E36" s="86" t="n"/>
+      <c r="E36" s="87" t="n"/>
       <c r="F36" s="18" t="inlineStr">
         <is>
           <t>Yok</t>
@@ -1814,7 +1858,7 @@
       </c>
     </row>
     <row r="37" ht="15" customHeight="1" thickBot="1">
-      <c r="B37" s="84" t="inlineStr">
+      <c r="B37" s="85" t="inlineStr">
         <is>
           <t xml:space="preserve">VA Kademe </t>
         </is>
@@ -1834,14 +1878,14 @@
       </c>
     </row>
     <row r="38" ht="15" customHeight="1" thickBot="1">
-      <c r="B38" s="85" t="inlineStr">
+      <c r="B38" s="86" t="inlineStr">
         <is>
           <t>Yok</t>
         </is>
       </c>
       <c r="C38" s="49" t="n"/>
       <c r="D38" s="49" t="n"/>
-      <c r="E38" s="86" t="n"/>
+      <c r="E38" s="87" t="n"/>
       <c r="F38" s="18" t="inlineStr">
         <is>
           <t>Yok</t>
@@ -1854,7 +1898,7 @@
       </c>
     </row>
     <row r="39" ht="15" customHeight="1" thickBot="1">
-      <c r="B39" s="84" t="inlineStr">
+      <c r="B39" s="85" t="inlineStr">
         <is>
           <t>Primer-Sekonder</t>
         </is>
@@ -1870,14 +1914,14 @@
       <c r="G39" s="8" t="n"/>
     </row>
     <row r="40" ht="15" customHeight="1" thickBot="1">
-      <c r="B40" s="85" t="inlineStr">
+      <c r="B40" s="86" t="inlineStr">
         <is>
           <t>Yok</t>
         </is>
       </c>
       <c r="C40" s="49" t="n"/>
       <c r="D40" s="49" t="n"/>
-      <c r="E40" s="86" t="n"/>
+      <c r="E40" s="87" t="n"/>
       <c r="F40" s="20" t="inlineStr">
         <is>
           <t>Yok</t>
@@ -1932,17 +1976,17 @@
     <row r="43">
       <c r="B43" s="28" t="inlineStr">
         <is>
-          <t>192.0 mm</t>
+          <t>360.0 mm</t>
         </is>
       </c>
       <c r="C43" s="29" t="inlineStr">
         <is>
-          <t>141.0 mm</t>
+          <t>151.0 mm</t>
         </is>
       </c>
       <c r="D43" s="29" t="inlineStr">
         <is>
-          <t>178.0 mm</t>
+          <t>318.0 mm</t>
         </is>
       </c>
       <c r="E43" s="29" t="inlineStr"/>
@@ -1996,27 +2040,27 @@
     <row r="46">
       <c r="B46" s="28" t="inlineStr">
         <is>
-          <t>0.0 mm</t>
+          <t>360.0 mm</t>
         </is>
       </c>
       <c r="C46" s="29" t="inlineStr">
         <is>
-          <t>0.0 mm</t>
+          <t>230.0 mm</t>
         </is>
       </c>
       <c r="D46" s="29" t="inlineStr">
         <is>
-          <t>0.0 mm</t>
+          <t>300.0 mm</t>
         </is>
       </c>
       <c r="E46" s="29" t="inlineStr">
         <is>
-          <t>0.0 mm</t>
+          <t>300.0 mm</t>
         </is>
       </c>
       <c r="F46" s="29" t="inlineStr">
         <is>
-          <t>0.0 mm</t>
+          <t>175.0 mm</t>
         </is>
       </c>
       <c r="G46" s="30" t="inlineStr">
@@ -2093,10 +2137,10 @@
           <t>Malzeme Listesi</t>
         </is>
       </c>
-      <c r="C1" s="87" t="n"/>
-      <c r="D1" s="87" t="n"/>
-      <c r="E1" s="87" t="n"/>
-      <c r="F1" s="88" t="n"/>
+      <c r="C1" s="88" t="n"/>
+      <c r="D1" s="88" t="n"/>
+      <c r="E1" s="88" t="n"/>
+      <c r="F1" s="89" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="42" t="n"/>
@@ -2124,16 +2168,16 @@
       </c>
       <c r="B3" s="42" t="inlineStr">
         <is>
-          <t>H0101204X30KPAL</t>
+          <t>H0103006X40PF</t>
         </is>
       </c>
       <c r="C3" s="71" t="inlineStr">
         <is>
-          <t>4.0x3.0</t>
+          <t>6.0x4.0</t>
         </is>
       </c>
       <c r="D3" s="71" t="n">
-        <v>1.78354548</v>
+        <v>3.0788424</v>
       </c>
       <c r="E3" s="42" t="n"/>
       <c r="F3" s="42" t="n"/>
@@ -2144,12 +2188,12 @@
       </c>
       <c r="B4" s="42" t="inlineStr">
         <is>
-          <t>H0206412000TD</t>
+          <t>H0206011000TD</t>
         </is>
       </c>
       <c r="C4" s="71" t="inlineStr">
         <is>
-          <t>64.0 x 100.0 x 68.0</t>
+          <t>60.0 x 110.0 x 171.0</t>
         </is>
       </c>
       <c r="D4" s="71" t="n"/>
@@ -2172,7 +2216,7 @@
       </c>
       <c r="D5" s="71" t="inlineStr">
         <is>
-          <t>18.857 kg</t>
+          <t>57.992 kg</t>
         </is>
       </c>
       <c r="E5" s="42" t="n"/>
